--- a/results.xlsx
+++ b/results.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="172">
   <si>
     <t>Heroes</t>
   </si>
@@ -438,6 +438,99 @@
   </si>
   <si>
     <t>Only two cards left in villain deck and 9 bystanders next to mastermind.</t>
+  </si>
+  <si>
+    <t>Mass Produce War Machine Armor</t>
+  </si>
+  <si>
+    <t>Pagliacci</t>
+  </si>
+  <si>
+    <t>Wrecking Crew|Heroes for Hire</t>
+  </si>
+  <si>
+    <t>SHIELD Assault Squad</t>
+  </si>
+  <si>
+    <t>Ronin (R)|Elsa Bloodstone (SW2)|Spider-Woman (PTT)|Kingpin (V)|Proxima Midnight (SW1)</t>
+  </si>
+  <si>
+    <t>44|40</t>
+  </si>
+  <si>
+    <t>Early on the henchmen were tough to kill and 2 managed to escape quickly. Both players collaborated to keep a third from escaping and the final tactic was taken with 2 cards left in the villain deck.</t>
+  </si>
+  <si>
+    <t>Pull earth into medieval times</t>
+  </si>
+  <si>
+    <t>Wasteland Hulk</t>
+  </si>
+  <si>
+    <t>Wasteland|Intelligencia</t>
+  </si>
+  <si>
+    <t>Thor (HOA)|Lady Sif (HOA)|Solo (DP)|Korg (WW)|Ms. America (D)</t>
+  </si>
+  <si>
+    <t>Only one villain escaped before the final twists. Two twists and many cards left in villain deck. Henchman allows for easy deck thinning.</t>
+  </si>
+  <si>
+    <t>25|42</t>
+  </si>
+  <si>
+    <t>Secret Wars</t>
+  </si>
+  <si>
+    <t>Aspects of the Void|Hellfire Club</t>
+  </si>
+  <si>
+    <t>Hulkling (CW)|Hulkbuster Iron Man (WW)|Quicksilver (R)|Mystique (V)|Spider-Man Noir (N)</t>
+  </si>
+  <si>
+    <t>Epic Mandarin</t>
+  </si>
+  <si>
+    <t>Arcade, Mole Man and Vulture as additional masterminds</t>
+  </si>
+  <si>
+    <t>5|9</t>
+  </si>
+  <si>
+    <t>Mastermind ascended very quickly and dominated the game, always taking away a strong hero. There was no deck-thinning with the rings and Vulture amplified the nr of wounds massively.</t>
+  </si>
+  <si>
+    <t>Trap heroes in the microverse</t>
+  </si>
+  <si>
+    <t>Aspects of the Void|Army of Evil</t>
+  </si>
+  <si>
+    <t>Jocasta (AM)|Domino (DC)|Electro (V)|Karma (NM)|Hellcat (R)|Venom (VE)</t>
+  </si>
+  <si>
+    <t>28|19</t>
+  </si>
+  <si>
+    <t>Venom in villain deck</t>
+  </si>
+  <si>
+    <t>Early wounds slowed down too much. Game stabilized rapidly right after the fatal twist</t>
+  </si>
+  <si>
+    <t>Nuclear armageddon</t>
+  </si>
+  <si>
+    <t>Hood's Gang|Radiation</t>
+  </si>
+  <si>
+    <t>Aurora &amp; Northstar (XM)|Scarlet Spider (PTT)|The Captain &amp; The Devil (SW2)|Venom Rocket (VE)|Wonder Man (AM)</t>
+  </si>
+  <si>
+    <t>Only two turns before last twist. Both players played rather competitively, putting the game at risk.</t>
+  </si>
+  <si>
+    <t>28|32</t>
   </si>
 </sst>
 </file>
@@ -778,10 +871,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K18"/>
+  <dimension ref="A1:K23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1401,6 +1494,175 @@
         <v>140</v>
       </c>
     </row>
+    <row r="19" spans="1:11">
+      <c r="A19">
+        <v>2</v>
+      </c>
+      <c r="B19" t="s">
+        <v>141</v>
+      </c>
+      <c r="C19" t="s">
+        <v>142</v>
+      </c>
+      <c r="D19" t="s">
+        <v>143</v>
+      </c>
+      <c r="E19" t="s">
+        <v>144</v>
+      </c>
+      <c r="F19" t="s">
+        <v>145</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="H19" t="s">
+        <v>146</v>
+      </c>
+      <c r="I19" t="s">
+        <v>30</v>
+      </c>
+      <c r="J19" t="s">
+        <v>47</v>
+      </c>
+      <c r="K19" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20">
+        <v>2</v>
+      </c>
+      <c r="B20" t="s">
+        <v>148</v>
+      </c>
+      <c r="C20" t="s">
+        <v>149</v>
+      </c>
+      <c r="D20" t="s">
+        <v>150</v>
+      </c>
+      <c r="E20" t="s">
+        <v>129</v>
+      </c>
+      <c r="F20" t="s">
+        <v>151</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="H20" t="s">
+        <v>153</v>
+      </c>
+      <c r="I20" t="s">
+        <v>23</v>
+      </c>
+      <c r="K20" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21">
+        <v>2</v>
+      </c>
+      <c r="B21" t="s">
+        <v>154</v>
+      </c>
+      <c r="C21" t="s">
+        <v>157</v>
+      </c>
+      <c r="D21" t="s">
+        <v>155</v>
+      </c>
+      <c r="E21" t="s">
+        <v>45</v>
+      </c>
+      <c r="F21" t="s">
+        <v>156</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21" t="s">
+        <v>159</v>
+      </c>
+      <c r="I21" t="s">
+        <v>23</v>
+      </c>
+      <c r="J21" t="s">
+        <v>158</v>
+      </c>
+      <c r="K21" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22">
+        <v>2</v>
+      </c>
+      <c r="B22" t="s">
+        <v>161</v>
+      </c>
+      <c r="C22" t="s">
+        <v>120</v>
+      </c>
+      <c r="D22" t="s">
+        <v>162</v>
+      </c>
+      <c r="E22" t="s">
+        <v>4</v>
+      </c>
+      <c r="F22" t="s">
+        <v>163</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22" t="s">
+        <v>164</v>
+      </c>
+      <c r="I22" t="s">
+        <v>30</v>
+      </c>
+      <c r="J22" t="s">
+        <v>165</v>
+      </c>
+      <c r="K22" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23">
+        <v>2</v>
+      </c>
+      <c r="B23" t="s">
+        <v>167</v>
+      </c>
+      <c r="C23" t="s">
+        <v>52</v>
+      </c>
+      <c r="D23" t="s">
+        <v>168</v>
+      </c>
+      <c r="E23" t="s">
+        <v>45</v>
+      </c>
+      <c r="F23" t="s">
+        <v>169</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="H23" t="s">
+        <v>171</v>
+      </c>
+      <c r="I23" t="s">
+        <v>30</v>
+      </c>
+      <c r="K23" t="s">
+        <v>170</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
